--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Lrpap1-Lrp1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Lrpap1-Lrp1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.91106464549418</v>
+        <v>6.540008666666668</v>
       </c>
       <c r="H2">
-        <v>5.91106464549418</v>
+        <v>19.620026</v>
       </c>
       <c r="I2">
-        <v>0.2223646641958327</v>
+        <v>0.2365207520404831</v>
       </c>
       <c r="J2">
-        <v>0.2223646641958327</v>
+        <v>0.2365207520404831</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.979663021146081</v>
+        <v>17.16653</v>
       </c>
       <c r="N2">
-        <v>9.979663021146081</v>
+        <v>51.49959</v>
       </c>
       <c r="O2">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="P2">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="Q2">
-        <v>58.99043325824224</v>
+        <v>112.2692549765933</v>
       </c>
       <c r="R2">
-        <v>58.99043325824224</v>
+        <v>1010.42329478934</v>
       </c>
       <c r="S2">
-        <v>0.007453190339110271</v>
+        <v>0.01325333147312037</v>
       </c>
       <c r="T2">
-        <v>0.007453190339110271</v>
+        <v>0.01325333147312037</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.91106464549418</v>
+        <v>6.540008666666668</v>
       </c>
       <c r="H3">
-        <v>5.91106464549418</v>
+        <v>19.620026</v>
       </c>
       <c r="I3">
-        <v>0.2223646641958327</v>
+        <v>0.2365207520404831</v>
       </c>
       <c r="J3">
-        <v>0.2223646641958327</v>
+        <v>0.2365207520404831</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>255.664805713016</v>
+        <v>256.4443053333333</v>
       </c>
       <c r="N3">
-        <v>255.664805713016</v>
+        <v>769.332916</v>
       </c>
       <c r="O3">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="P3">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="Q3">
-        <v>1511.251194147347</v>
+        <v>1677.147979397313</v>
       </c>
       <c r="R3">
-        <v>1511.251194147347</v>
+        <v>15094.33181457582</v>
       </c>
       <c r="S3">
-        <v>0.190940160599924</v>
+        <v>0.1979865111339773</v>
       </c>
       <c r="T3">
-        <v>0.190940160599924</v>
+        <v>0.1979865111339773</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.91106464549418</v>
+        <v>6.540008666666668</v>
       </c>
       <c r="H4">
-        <v>5.91106464549418</v>
+        <v>19.620026</v>
       </c>
       <c r="I4">
-        <v>0.2223646641958327</v>
+        <v>0.2365207520404831</v>
       </c>
       <c r="J4">
-        <v>0.2223646641958327</v>
+        <v>0.2365207520404831</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.0970775725202</v>
+        <v>32.74538866666666</v>
       </c>
       <c r="N4">
-        <v>32.0970775725202</v>
+        <v>98.236166</v>
       </c>
       <c r="O4">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="P4">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="Q4">
-        <v>189.7279004626083</v>
+        <v>214.1551256733685</v>
       </c>
       <c r="R4">
-        <v>189.7279004626083</v>
+        <v>1927.396131060316</v>
       </c>
       <c r="S4">
-        <v>0.02397131325679847</v>
+        <v>0.02528090943338534</v>
       </c>
       <c r="T4">
-        <v>0.02397131325679847</v>
+        <v>0.02528090943338534</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.5534132248221</v>
+        <v>14.67485766666667</v>
       </c>
       <c r="H5">
-        <v>14.5534132248221</v>
+        <v>44.024573</v>
       </c>
       <c r="I5">
-        <v>0.5474757998303376</v>
+        <v>0.5307192311682535</v>
       </c>
       <c r="J5">
-        <v>0.5474757998303376</v>
+        <v>0.5307192311682536</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.979663021146081</v>
+        <v>17.16653</v>
       </c>
       <c r="N5">
-        <v>9.979663021146081</v>
+        <v>51.49959</v>
       </c>
       <c r="O5">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="P5">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="Q5">
-        <v>145.2381597912155</v>
+        <v>251.9163843805633</v>
       </c>
       <c r="R5">
-        <v>145.2381597912155</v>
+        <v>2267.24745942507</v>
       </c>
       <c r="S5">
-        <v>0.01835022375047218</v>
+        <v>0.02973860783525899</v>
       </c>
       <c r="T5">
-        <v>0.01835022375047218</v>
+        <v>0.02973860783525899</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.5534132248221</v>
+        <v>14.67485766666667</v>
       </c>
       <c r="H6">
-        <v>14.5534132248221</v>
+        <v>44.024573</v>
       </c>
       <c r="I6">
-        <v>0.5474757998303376</v>
+        <v>0.5307192311682535</v>
       </c>
       <c r="J6">
-        <v>0.5474757998303376</v>
+        <v>0.5307192311682536</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>255.664805713016</v>
+        <v>256.4443053333333</v>
       </c>
       <c r="N6">
-        <v>255.664805713016</v>
+        <v>769.332916</v>
       </c>
       <c r="O6">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="P6">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="Q6">
-        <v>3720.795564585379</v>
+        <v>3763.283680193874</v>
       </c>
       <c r="R6">
-        <v>3720.795564585379</v>
+        <v>33869.55312174487</v>
       </c>
       <c r="S6">
-        <v>0.4701066939849499</v>
+        <v>0.4442538257815304</v>
       </c>
       <c r="T6">
-        <v>0.4701066939849499</v>
+        <v>0.4442538257815305</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.5534132248221</v>
+        <v>14.67485766666667</v>
       </c>
       <c r="H7">
-        <v>14.5534132248221</v>
+        <v>44.024573</v>
       </c>
       <c r="I7">
-        <v>0.5474757998303376</v>
+        <v>0.5307192311682535</v>
       </c>
       <c r="J7">
-        <v>0.5474757998303376</v>
+        <v>0.5307192311682536</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>32.0970775725202</v>
+        <v>32.74538866666666</v>
       </c>
       <c r="N7">
-        <v>32.0970775725202</v>
+        <v>98.236166</v>
       </c>
       <c r="O7">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="P7">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="Q7">
-        <v>467.1220332220563</v>
+        <v>480.5339179230131</v>
       </c>
       <c r="R7">
-        <v>467.1220332220563</v>
+        <v>4324.805261307119</v>
       </c>
       <c r="S7">
-        <v>0.05901888209491544</v>
+        <v>0.05672679755146406</v>
       </c>
       <c r="T7">
-        <v>0.05901888209491544</v>
+        <v>0.05672679755146406</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.11827378616277</v>
+        <v>6.436020999999999</v>
       </c>
       <c r="H8">
-        <v>6.11827378616277</v>
+        <v>19.308063</v>
       </c>
       <c r="I8">
-        <v>0.2301595359738297</v>
+        <v>0.2327600167912634</v>
       </c>
       <c r="J8">
-        <v>0.2301595359738297</v>
+        <v>0.2327600167912634</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.979663021146081</v>
+        <v>17.16653</v>
       </c>
       <c r="N8">
-        <v>9.979663021146081</v>
+        <v>51.49959</v>
       </c>
       <c r="O8">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="P8">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="Q8">
-        <v>61.05831065701602</v>
+        <v>110.48414757713</v>
       </c>
       <c r="R8">
-        <v>61.05831065701602</v>
+        <v>994.3573281941698</v>
       </c>
       <c r="S8">
-        <v>0.007714457853175389</v>
+        <v>0.01304260040444854</v>
       </c>
       <c r="T8">
-        <v>0.007714457853175389</v>
+        <v>0.01304260040444854</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.11827378616277</v>
+        <v>6.436020999999999</v>
       </c>
       <c r="H9">
-        <v>6.11827378616277</v>
+        <v>19.308063</v>
       </c>
       <c r="I9">
-        <v>0.2301595359738297</v>
+        <v>0.2327600167912634</v>
       </c>
       <c r="J9">
-        <v>0.2301595359738297</v>
+        <v>0.2327600167912634</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>255.664805713016</v>
+        <v>256.4443053333333</v>
       </c>
       <c r="N9">
-        <v>255.664805713016</v>
+        <v>769.332916</v>
       </c>
       <c r="O9">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="P9">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="Q9">
-        <v>1564.227278838343</v>
+        <v>1650.480934455745</v>
       </c>
       <c r="R9">
-        <v>1564.227278838343</v>
+        <v>14854.32841010171</v>
       </c>
       <c r="S9">
-        <v>0.1976334635782955</v>
+        <v>0.1948384793233727</v>
       </c>
       <c r="T9">
-        <v>0.1976334635782955</v>
+        <v>0.1948384793233727</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.11827378616277</v>
+        <v>6.436020999999999</v>
       </c>
       <c r="H10">
-        <v>6.11827378616277</v>
+        <v>19.308063</v>
       </c>
       <c r="I10">
-        <v>0.2301595359738297</v>
+        <v>0.2327600167912634</v>
       </c>
       <c r="J10">
-        <v>0.2301595359738297</v>
+        <v>0.2327600167912634</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>32.0970775725202</v>
+        <v>32.74538866666666</v>
       </c>
       <c r="N10">
-        <v>32.0970775725202</v>
+        <v>98.236166</v>
       </c>
       <c r="O10">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="P10">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="Q10">
-        <v>196.3787083243833</v>
+        <v>210.7500091118286</v>
       </c>
       <c r="R10">
-        <v>196.3787083243833</v>
+        <v>1896.750082006458</v>
       </c>
       <c r="S10">
-        <v>0.02481161454235876</v>
+        <v>0.02487893706344213</v>
       </c>
       <c r="T10">
-        <v>0.02481161454235876</v>
+        <v>0.02487893706344213</v>
       </c>
     </row>
   </sheetData>
